--- a/spliced/walkingToRunning/2023-04-03_16-56-03/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-56-03/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.778092861175537</v>
+        <v>18.70621109008789</v>
       </c>
       <c r="B2" t="n">
-        <v>-22.78524398803711</v>
+        <v>-5.636280059814453</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.958083152770996</v>
+        <v>6.914060115814209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.934078931808472</v>
+        <v>19.93985939025879</v>
       </c>
       <c r="B3" t="n">
-        <v>-15.44094562530518</v>
+        <v>-3.599599838256836</v>
       </c>
       <c r="C3" t="n">
-        <v>5.820011138916016</v>
+        <v>8.073759078979492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.875381946563721</v>
+        <v>27.86785316467285</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.622690200805664</v>
+        <v>-18.30047225952148</v>
       </c>
       <c r="C4" t="n">
-        <v>6.132236003875732</v>
+        <v>6.377731800079346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.527345657348633</v>
+        <v>-0.164954662322998</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.132190704345703</v>
+        <v>-10.53660011291504</v>
       </c>
       <c r="C5" t="n">
-        <v>4.089809417724609</v>
+        <v>4.150550365447998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.29200172424316</v>
+        <v>5.472853660583496</v>
       </c>
       <c r="B6" t="n">
-        <v>-11.73352718353272</v>
+        <v>-46.38559722900391</v>
       </c>
       <c r="C6" t="n">
-        <v>6.85174560546875</v>
+        <v>-0.9001345634460449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18.70621109008789</v>
+        <v>3.861607551574707</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.636280059814453</v>
+        <v>-19.79164886474609</v>
       </c>
       <c r="C7" t="n">
-        <v>6.914060115814209</v>
+        <v>0.622889518737793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19.93985939025879</v>
+        <v>14.61344242095947</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.599599838256836</v>
+        <v>-10.30790042877197</v>
       </c>
       <c r="C8" t="n">
-        <v>8.073759078979492</v>
+        <v>17.13724899291992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27.86785316467285</v>
+        <v>2.93750786781311</v>
       </c>
       <c r="B9" t="n">
-        <v>-18.30047225952148</v>
+        <v>-46.01893997192383</v>
       </c>
       <c r="C9" t="n">
-        <v>6.377731800079346</v>
+        <v>7.825448036193848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.164954662322998</v>
+        <v>-20.74547958374023</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.53660011291504</v>
+        <v>-0.2439025640487671</v>
       </c>
       <c r="C10" t="n">
-        <v>4.150550365447998</v>
+        <v>8.103152275085449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.472853660583496</v>
+        <v>-20.94050025939941</v>
       </c>
       <c r="B11" t="n">
-        <v>-46.38559722900391</v>
+        <v>-7.066665649414063</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9001345634460449</v>
+        <v>6.037558555603027</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.861607551574707</v>
+        <v>29.87363624572754</v>
       </c>
       <c r="B12" t="n">
-        <v>-19.79164886474609</v>
+        <v>-61.11213684082031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.622889518737793</v>
+        <v>14.88786697387695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.61344242095947</v>
+        <v>4.961847305297852</v>
       </c>
       <c r="B13" t="n">
-        <v>-10.30790042877197</v>
+        <v>-15.47994041442871</v>
       </c>
       <c r="C13" t="n">
-        <v>17.13724899291992</v>
+        <v>18.70905494689941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.93750786781311</v>
+        <v>-0.8285019397735596</v>
       </c>
       <c r="B14" t="n">
-        <v>-46.01893997192383</v>
+        <v>-6.118541240692139</v>
       </c>
       <c r="C14" t="n">
-        <v>7.825448036193848</v>
+        <v>8.952471733093262</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-20.74547958374023</v>
+        <v>0.8424484729766846</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2439025640487671</v>
+        <v>-38.40699005126953</v>
       </c>
       <c r="C15" t="n">
-        <v>8.103152275085449</v>
+        <v>14.60053634643555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.94050025939941</v>
+        <v>1.708237409591675</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.066665649414063</v>
+        <v>32.82785034179688</v>
       </c>
       <c r="C16" t="n">
-        <v>6.037558555603027</v>
+        <v>13.28276348114014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29.87363624572754</v>
+        <v>-19.85161781311035</v>
       </c>
       <c r="B17" t="n">
-        <v>-61.11213684082031</v>
+        <v>-6.960978984832764</v>
       </c>
       <c r="C17" t="n">
-        <v>14.88786697387695</v>
+        <v>4.844282150268555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.961847305297852</v>
+        <v>-47.64518356323242</v>
       </c>
       <c r="B18" t="n">
-        <v>-15.47994041442871</v>
+        <v>-56.76200866699219</v>
       </c>
       <c r="C18" t="n">
-        <v>18.70905494689941</v>
+        <v>40.71841812133789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.8285019397735596</v>
+        <v>-2.008986234664917</v>
       </c>
       <c r="B19" t="n">
-        <v>-6.118541240692139</v>
+        <v>-3.396074771881104</v>
       </c>
       <c r="C19" t="n">
-        <v>8.952471733093262</v>
+        <v>5.574520111083984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8424484729766846</v>
+        <v>1.793292045593261</v>
       </c>
       <c r="B20" t="n">
-        <v>-38.40699005126953</v>
+        <v>1.589181900024414</v>
       </c>
       <c r="C20" t="n">
-        <v>14.60053634643555</v>
+        <v>13.23852920532227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.708237409591675</v>
+        <v>0.5213950872421265</v>
       </c>
       <c r="B21" t="n">
-        <v>32.82785034179688</v>
+        <v>-13.69121932983398</v>
       </c>
       <c r="C21" t="n">
-        <v>13.28276348114014</v>
+        <v>13.58244514465332</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-25.09261322021484</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15.60748481750488</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5675735473632812</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-30.59898567199707</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-12.55906105041504</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.974555969238281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-38.86380767822266</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-84.71040344238281</v>
+      </c>
+      <c r="C24" t="n">
+        <v>66.18233489990234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-8.86505126953125</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.532943964004517</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.462150573730469</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.391067981719971</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.471791982650757</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18.45427322387696</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-4.55918025970459</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-21.72416114807129</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.08992767333984369</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-17.91468048095703</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18.05105400085449</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-10.55736446380615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-62.19514083862305</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-14.345703125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.762966632843018</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-47.85998153686523</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-73.05361175537109</v>
+      </c>
+      <c r="C30" t="n">
+        <v>52.46365737915039</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-2.905624389648437</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.127065658569336</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.177680492401123</v>
       </c>
     </row>
   </sheetData>
